--- a/Documentation/Sprint2_Deliverable/TimeSheet/Time sheet.xlsx
+++ b/Documentation/Sprint2_Deliverable/TimeSheet/Time sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
   <si>
     <t>Team Name</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Update Readme file and Burndown chart</t>
+  </si>
+  <si>
+    <t>Upload sprint 2 deliverable to GitHub</t>
   </si>
   <si>
     <t>Research on backend framework</t>
@@ -258,6 +261,30 @@
   </si>
   <si>
     <t>Created all the github backlog for Sprint 2</t>
+  </si>
+  <si>
+    <t>#36</t>
+  </si>
+  <si>
+    <t>Messed around with the current messaging system implemented by Tony and started to check the problems and work-arounds</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>Worked with the database and decide how to store messages, figure out algorithm of message storing</t>
+  </si>
+  <si>
+    <t>#22, #21</t>
+  </si>
+  <si>
+    <t>Recombined everyone's code and made a full push to a new branch called REC-1. Combines the requirements for the Sprint 2</t>
+  </si>
+  <si>
+    <t>#34, #35, #36</t>
+  </si>
+  <si>
+    <t>Checked the code with everyone. Test and make sure everyone can also do it on their computers for the Sprint</t>
   </si>
   <si>
     <t>write two test cases and make the CI on github Actions</t>
@@ -1030,7 +1057,21 @@
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="5"/>
+      <c r="A16" s="14">
+        <v>45723.0</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1109,7 +1150,7 @@
         <v>60.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1121,7 +1162,7 @@
         <v>90.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1132,7 +1173,7 @@
         <v>15.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1146,7 +1187,7 @@
         <v>45.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1157,13 +1198,13 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5">
         <v>240.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1174,13 +1215,13 @@
         <v>0.5416666666666666</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5">
         <v>45.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -1191,13 +1232,13 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5">
         <v>90.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -1208,13 +1249,13 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5">
         <v>120.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -1225,13 +1266,13 @@
         <v>0.875</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5">
         <v>230.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -1242,13 +1283,13 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5">
         <v>45.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1361,7 @@
         <v>0.75</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -1337,7 +1378,7 @@
         <v>1.5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1354,7 +1395,7 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1365,16 +1406,16 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5">
         <v>4.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -1391,10 +1432,10 @@
         <v>2.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1408,7 +1449,7 @@
         <v>2.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -1416,16 +1457,16 @@
         <v>45708.0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5">
         <v>2.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -1433,16 +1474,16 @@
         <v>45709.0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5">
         <v>3.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -1450,16 +1491,16 @@
         <v>45721.0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5">
         <v>1.5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1581,7 @@
         <v>0.25</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" s="21"/>
     </row>
@@ -1552,16 +1593,16 @@
         <v>0.75</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5">
         <v>6.0</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1578,10 +1619,10 @@
         <v>3.0</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -1598,7 +1639,7 @@
         <v>0.5</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="21"/>
     </row>
@@ -1616,7 +1657,7 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="21"/>
     </row>
@@ -1634,43 +1675,111 @@
         <v>0.5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11">
+        <v>45709.0</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11">
+        <v>45716.0</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>74</v>
+      <c r="A13" s="14">
+        <v>45719.0</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A14" s="14">
+        <v>45722.0</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>81</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1740,13 +1849,13 @@
         <v>0.75</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -1757,13 +1866,13 @@
         <v>0.75</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -1774,10 +1883,10 @@
         <v>0.75</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -1788,13 +1897,13 @@
         <v>0.5416666666666666</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1805,13 +1914,13 @@
         <v>0.5625</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -1822,13 +1931,13 @@
         <v>0.8645833333333334</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -1839,10 +1948,10 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -1853,10 +1962,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Sprint2_Deliverable/TimeSheet/Time sheet.xlsx
+++ b/Documentation/Sprint2_Deliverable/TimeSheet/Time sheet.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NBNB\Desktop\Github\Tomfoolery-SOEN341_Project_W25\Documentation\Sprint2_Deliverable\TimeSheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D409D60-6311-44AC-938D-E8B56D802E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Dashboard" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Ming" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Lam" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Gilbert" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Jeff" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Nav" sheetId="6" r:id="rId9"/>
+    <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
+    <sheet name="Ming" sheetId="2" r:id="rId2"/>
+    <sheet name="Lam" sheetId="3" r:id="rId3"/>
+    <sheet name="Gilbert" sheetId="4" r:id="rId4"/>
+    <sheet name="Jeff" sheetId="5" r:id="rId5"/>
+    <sheet name="Nav" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
   <si>
     <t>Team Name</t>
   </si>
@@ -84,9 +93,6 @@
     <t>Create a project on firebase</t>
   </si>
   <si>
-    <t>2/6/0225</t>
-  </si>
-  <si>
     <t>#6</t>
   </si>
   <si>
@@ -226,13 +232,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Link to the tutorial: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=2hR-uWjBAgw</t>
     </r>
@@ -242,13 +250,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Based on this tutorial: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=0gLr-pBIPhI</t>
     </r>
@@ -287,30 +297,6 @@
     <t>Checked the code with everyone. Test and make sure everyone can also do it on their computers for the Sprint</t>
   </si>
   <si>
-    <t>write two test cases and make the CI on github Actions</t>
-  </si>
-  <si>
-    <t>Due by sunday 8 PM</t>
-  </si>
-  <si>
-    <t>make sure that they both succeed</t>
-  </si>
-  <si>
-    <t>Send an E-mail</t>
-  </si>
-  <si>
-    <t>1. For tbe entire YML files and github actions make the test cases for CI/CD</t>
-  </si>
-  <si>
-    <t>2. Meeting minutes of Friday march 7th and make everything as a usual meeting minutes, send to the professor</t>
-  </si>
-  <si>
-    <t>Last Step:</t>
-  </si>
-  <si>
-    <t>Upload burndown chart, sprint meetings, to the github</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -360,50 +346,80 @@
   </si>
   <si>
     <t>Added delete chat button and function</t>
+  </si>
+  <si>
+    <t>02-06-2025</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="h:mm am/pm"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="167" formatCode="m/d"/>
-    <numFmt numFmtId="168" formatCode="m/d/yy"/>
-    <numFmt numFmtId="169" formatCode="mmm d"/>
-    <numFmt numFmtId="170" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="177" formatCode="h:mm\ am/pm"/>
+    <numFmt numFmtId="178" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="179" formatCode="m/d"/>
+    <numFmt numFmtId="180" formatCode="m/d/yy"/>
+    <numFmt numFmtId="181" formatCode="mmm\ d"/>
+    <numFmt numFmtId="182" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -411,7 +427,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -457,124 +473,68 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -764,24 +724,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.13"/>
-    <col customWidth="1" min="2" max="2" width="25.13"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -797,68 +762,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>4.0238338E7</v>
+        <v>40238338</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>4.0115222E7</v>
+        <v>40115222</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4.0255597E7</v>
+        <v>40255597</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4.0283099E7</v>
+        <v>40283099</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>4.0129282E7</v>
+        <v>40129282</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="34.13"/>
-    <col customWidth="1" min="4" max="4" width="18.25"/>
-    <col customWidth="1" min="5" max="5" width="38.75"/>
-    <col customWidth="1" min="6" max="6" width="44.25"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="38.77734375" customWidth="1"/>
+    <col min="6" max="6" width="44.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -866,15 +835,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>4.0255597E7</v>
+        <v>40255597</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -894,12 +863,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>45691.0</v>
+        <v>45691</v>
       </c>
       <c r="B5" s="12">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
@@ -911,9 +880,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>45692.0</v>
+        <v>45692</v>
       </c>
       <c r="B6" s="12">
         <v>0.875</v>
@@ -922,7 +891,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -931,12 +900,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>45693.0</v>
+        <v>45693</v>
       </c>
       <c r="B7" s="12">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
@@ -948,154 +917,150 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>45698</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="11"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>45698.0</v>
+        <v>45700</v>
       </c>
       <c r="B10" s="12">
-        <v>0.6666666666666666</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5">
-        <v>3.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11">
-        <v>45700.0</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>45714</v>
       </c>
       <c r="B11" s="12">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>45715</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>45722</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="14">
-        <v>45714.0</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0.875</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" s="5">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>45715.0</v>
+        <v>45723</v>
       </c>
       <c r="B14" s="12">
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14">
-        <v>45722.0</v>
-      </c>
-      <c r="B15" s="12">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="14">
-        <v>45723.0</v>
-      </c>
-      <c r="B16" s="12">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F6"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="38.75"/>
-    <col customWidth="1" min="4" max="4" width="16.88"/>
+    <col min="3" max="3" width="38.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1103,9 +1068,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>4.0238338E7</v>
+        <v>40238338</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>4</v>
@@ -1114,14 +1079,14 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1141,177 +1106,179 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>45687.0</v>
+        <v>45687</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>45688.0</v>
+        <v>45688</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>45688</v>
+      </c>
+      <c r="D7" s="5">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="11">
-        <v>45688.0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="E7" s="5" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>45693</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="11">
-        <v>45693.0</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="D8" s="5">
-        <v>45.0</v>
-      </c>
-      <c r="E8" s="5" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>45694</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11">
-        <v>45694.0</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5">
+        <v>240</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="5">
-        <v>240.0</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>45695</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11">
-        <v>45695.0</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5">
-        <v>45.0</v>
-      </c>
-      <c r="E10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>45698</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11">
-        <v>45698.0</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5">
+        <v>90</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5">
-        <v>90.0</v>
-      </c>
-      <c r="E11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>45707</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11">
-        <v>45707.0</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5">
+        <v>120</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="5">
-        <v>120.0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <v>45716.0</v>
+        <v>45716</v>
       </c>
       <c r="B13" s="12">
         <v>0.875</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5">
+        <v>230</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="5">
-        <v>230.0</v>
-      </c>
-      <c r="E13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>45717</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11">
-        <v>45717.0</v>
-      </c>
-      <c r="B14" s="12">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="5">
-        <v>45.0</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="25.75"/>
-    <col customWidth="1" min="5" max="5" width="36.0"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1319,15 +1286,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>4.0115222E7</v>
+        <v>40115222</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1347,12 +1314,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>45686.0</v>
+        <v>45686</v>
       </c>
       <c r="B5" s="12">
-        <v>0.7083333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
@@ -1361,15 +1328,15 @@
         <v>0.75</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>45688.0</v>
+        <v>45688</v>
       </c>
       <c r="B6" s="12">
-        <v>0.7083333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -1378,15 +1345,15 @@
         <v>1.5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
-        <v>45693.0</v>
+        <v>45693</v>
       </c>
       <c r="B7" s="12">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
@@ -1395,32 +1362,32 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>45694</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="17">
-        <v>45694.0</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
-        <v>45700.0</v>
+        <v>45700</v>
       </c>
       <c r="B9" s="12">
         <v>0.75</v>
@@ -1429,109 +1396,113 @@
         <v>15</v>
       </c>
       <c r="D9" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
-        <v>45707.0</v>
+        <v>45707</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>45708</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="19">
-        <v>45708.0</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="18" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>45709</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="19">
-        <v>45709.0</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="13" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>45721</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="19">
-        <v>45721.0</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="D13" s="5">
         <v>1.5</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F8"/>
-    <hyperlink r:id="rId2" ref="F9"/>
-    <hyperlink r:id="rId3" ref="F11"/>
-    <hyperlink r:id="rId4" ref="F12"/>
-    <hyperlink r:id="rId5" ref="F13"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="13.88"/>
-    <col customWidth="1" min="4" max="4" width="21.88"/>
-    <col customWidth="1" min="5" max="5" width="32.5"/>
-    <col customWidth="1" min="6" max="6" width="26.5"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1539,15 +1510,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>4.0283099E7</v>
+        <v>40283099</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1567,12 +1538,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>45687.0</v>
+        <v>45687</v>
       </c>
       <c r="B5" s="12">
-        <v>0.7083333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
@@ -1581,53 +1552,53 @@
         <v>0.25</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6">
+        <v>65</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>45692.0</v>
+        <v>45692</v>
       </c>
       <c r="B6" s="12">
         <v>0.75</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="23" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>45693</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="14">
-        <v>45693.0</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>45694.0</v>
+        <v>45694</v>
       </c>
       <c r="B8" s="12">
         <v>0.75</v>
@@ -1639,16 +1610,16 @@
         <v>0.5</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9">
+        <v>71</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>45694.0</v>
+        <v>45694</v>
       </c>
       <c r="B9" s="12">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>15</v>
@@ -1657,16 +1628,16 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10">
+        <v>72</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>45701.0</v>
+        <v>45701</v>
       </c>
       <c r="B10" s="12">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
@@ -1675,137 +1646,123 @@
         <v>0.5</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>45709</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11">
-        <v>45709.0</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>45716</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11">
-        <v>45716.0</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>45719.0</v>
+        <v>45719</v>
       </c>
       <c r="B13" s="12">
         <v>0.75</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>45722</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="14">
-        <v>45722.0</v>
-      </c>
-      <c r="B14" s="12">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>90</v>
-      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F6"/>
-    <hyperlink r:id="rId2" ref="F7"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="45.63"/>
-    <col customWidth="1" min="5" max="5" width="24.5"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1813,15 +1770,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>4.0129282E7</v>
+        <v>40129282</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1841,134 +1798,135 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="24">
-        <v>45689.0</v>
-      </c>
-      <c r="B5" s="25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>45689</v>
+      </c>
+      <c r="B5" s="23">
         <v>0.75</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>45694</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>45700</v>
+      </c>
+      <c r="B7" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>45705</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>45706</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="5" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>45708</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="24">
-        <v>45694.0</v>
-      </c>
-      <c r="B6" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>45715</v>
+      </c>
+      <c r="B11" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="24">
-        <v>45700.0</v>
-      </c>
-      <c r="B7" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>45716</v>
+      </c>
+      <c r="B12" s="23">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="24">
-        <v>45705.0</v>
-      </c>
-      <c r="B8" s="25">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="24">
-        <v>45706.0</v>
-      </c>
-      <c r="B9" s="25">
-        <v>0.5625</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="24">
-        <v>45708.0</v>
-      </c>
-      <c r="B10" s="25">
-        <v>0.8645833333333334</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="24">
-        <v>45715.0</v>
-      </c>
-      <c r="B11" s="25">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="24">
-        <v>45716.0</v>
-      </c>
-      <c r="B12" s="25">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>